--- a/ref/ingestion/calibrated/nicaragua/model_input_variables_nicaragua_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/nicaragua/model_input_variables_nicaragua_ip_calibrated.xlsx
@@ -15283,112 +15283,112 @@
         <v>0.8</v>
       </c>
       <c r="J114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="K114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="L114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="M114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="N114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="O114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="P114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="Q114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="R114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="S114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="T114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="U114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="V114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="W114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="X114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="Y114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="Z114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AA114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AB114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AC114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AD114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AE114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AF114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AG114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AH114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AI114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AJ114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AK114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AL114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AM114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AN114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AO114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AP114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AQ114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AR114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
       <c r="AS114" t="n">
-        <v>780447.5787</v>
+        <v>20.64299912</v>
       </c>
     </row>
     <row r="115">

--- a/ref/ingestion/calibrated/nicaragua/model_input_variables_nicaragua_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/nicaragua/model_input_variables_nicaragua_ip_calibrated.xlsx
@@ -13449,112 +13449,112 @@
         <v>0.8</v>
       </c>
       <c r="J100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="K100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="L100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="M100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="N100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="O100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="P100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="Q100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="R100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="S100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="T100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="U100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="V100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="W100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="X100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="Y100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="Z100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AA100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AB100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AC100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AD100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AE100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AF100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AG100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AH100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AI100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AJ100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AK100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AL100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AM100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AN100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AO100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AP100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AQ100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AR100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
       <c r="AS100" t="n">
-        <v>111289.147</v>
+        <v>14447.15351</v>
       </c>
     </row>
     <row r="101">
@@ -13580,112 +13580,112 @@
         <v>0.8</v>
       </c>
       <c r="J101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="K101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="L101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="M101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="N101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="O101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="P101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="Q101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="R101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="S101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="T101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="U101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="V101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="W101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="X101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="Y101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="Z101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AA101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AB101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AC101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AD101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AE101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AF101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AG101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AH101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AI101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AJ101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AK101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AL101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AM101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AN101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AO101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AP101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AQ101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AR101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
       <c r="AS101" t="n">
-        <v>207698.4987</v>
+        <v>20769.84987</v>
       </c>
     </row>
     <row r="102">
@@ -13842,112 +13842,112 @@
         <v>0.8</v>
       </c>
       <c r="J103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="K103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="L103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="M103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="N103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="O103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="P103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="Q103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="R103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="S103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="T103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="U103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="V103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="W103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="X103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="Y103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="Z103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AA103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AB103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AC103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AD103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AE103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AF103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AG103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AH103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AI103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AJ103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AK103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AL103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AM103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AN103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AO103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AP103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AQ103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AR103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
       <c r="AS103" t="n">
-        <v>5223.744614</v>
+        <v>5240.939598</v>
       </c>
     </row>
     <row r="104">
@@ -14104,112 +14104,112 @@
         <v>0.8</v>
       </c>
       <c r="J105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="K105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="L105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="M105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="N105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="O105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="P105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="Q105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="R105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="S105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="T105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="U105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="V105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="W105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="X105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="Y105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="Z105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AA105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AB105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AC105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AD105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AE105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AF105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AG105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AH105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AI105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AJ105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AK105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AL105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AM105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AN105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AO105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AP105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AQ105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AR105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
       <c r="AS105" t="n">
-        <v>4467.51503</v>
+        <v>1161.553908</v>
       </c>
     </row>
     <row r="106">
@@ -14235,112 +14235,112 @@
         <v>0.8</v>
       </c>
       <c r="J106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="K106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="L106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="M106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="N106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="O106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="P106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="Q106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="R106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="S106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="T106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="U106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="V106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="W106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="X106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="Y106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="Z106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AA106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AB106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AC106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AD106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AE106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AF106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AG106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AH106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AI106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AJ106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AK106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AL106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AM106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AN106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AO106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AP106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AQ106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AR106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
       <c r="AS106" t="n">
-        <v>27387.95034</v>
+        <v>84608.69602</v>
       </c>
     </row>
     <row r="107">
@@ -14366,112 +14366,112 @@
         <v>0.8</v>
       </c>
       <c r="J107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="K107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="L107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="M107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="N107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="O107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="P107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="Q107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="R107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="S107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="T107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="U107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="V107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="W107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="X107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="Y107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="Z107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AA107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AB107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AC107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AD107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AE107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AF107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AG107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AH107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AI107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AJ107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AK107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AL107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AM107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AN107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AO107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AP107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AQ107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AR107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
       <c r="AS107" t="n">
-        <v>13527.38082</v>
+        <v>27054.76164</v>
       </c>
     </row>
     <row r="108">
@@ -15414,112 +15414,112 @@
         <v>0.8</v>
       </c>
       <c r="J115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="K115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="L115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="M115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="N115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="O115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="P115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="Q115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="R115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="S115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="T115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="U115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="V115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="W115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="X115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="Y115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="Z115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AA115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AB115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AC115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AD115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AE115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AF115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AG115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AH115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AI115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AJ115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AK115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AL115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AM115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AN115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AO115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AP115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AQ115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AR115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
       <c r="AS115" t="n">
-        <v>663397.3386</v>
+        <v>6633973.386</v>
       </c>
     </row>
     <row r="116">

--- a/ref/ingestion/calibrated/nicaragua/model_input_variables_nicaragua_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/nicaragua/model_input_variables_nicaragua_ip_calibrated.xlsx
@@ -12973,112 +12973,112 @@
         <v>0.8</v>
       </c>
       <c r="J100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="K100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="L100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="M100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="N100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="O100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="P100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="Q100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="R100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="S100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="T100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="U100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="V100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="W100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="X100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="Y100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="Z100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AA100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AB100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AC100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AD100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AE100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AF100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AG100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AH100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AI100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AJ100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AK100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AL100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AM100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AN100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AO100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AP100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AQ100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AR100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
       <c r="AS100">
-        <v>2539715.418</v>
+        <v>14447.15351</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13095,112 +13095,112 @@
         <v>0.8</v>
       </c>
       <c r="J101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="K101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="L101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="M101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="N101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="O101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="P101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="Q101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="R101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="S101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="T101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="U101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="V101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="W101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="X101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="Y101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="Z101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AA101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AB101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AC101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AD101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AE101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AF101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AG101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AH101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AI101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AJ101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AK101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AL101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AM101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AN101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AO101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AP101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AQ101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AR101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
       <c r="AS101">
-        <v>30290.65338</v>
+        <v>20769.84987</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13217,112 +13217,112 @@
         <v>0.8</v>
       </c>
       <c r="J102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="K102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="L102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="M102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="N102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="O102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="P102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="Q102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="R102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="S102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="T102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="U102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="V102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="W102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="X102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="Y102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="Z102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AA102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AB102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AC102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AD102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AE102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AF102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AG102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AH102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AI102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AJ102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AK102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AL102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AM102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AN102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AO102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AP102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AQ102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AR102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
       <c r="AS102">
-        <v>65645.83782</v>
+        <v>769169.9638</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13339,112 +13339,112 @@
         <v>0.8</v>
       </c>
       <c r="J103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="K103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="L103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="M103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="N103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="O103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="P103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="Q103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="R103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="S103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="T103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="U103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="V103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="W103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="X103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="Y103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="Z103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AA103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AB103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AC103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AD103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AE103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AF103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AG103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AH103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AI103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AJ103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AK103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AL103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AM103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AN103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AO103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AP103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AQ103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AR103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
       <c r="AS103">
-        <v>2570.043182</v>
+        <v>5240.939598</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13461,112 +13461,112 @@
         <v>0.8</v>
       </c>
       <c r="J104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="K104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="L104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="M104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="N104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="O104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="P104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="Q104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="R104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="S104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="T104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="U104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="V104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="W104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="X104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="Y104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="Z104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AA104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AB104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AC104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AD104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AE104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AF104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AG104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AH104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AI104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AJ104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AK104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AL104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AM104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AN104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AO104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AP104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AQ104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AR104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
       <c r="AS104">
-        <v>24371.17437</v>
+        <v>11113.19501</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -13583,112 +13583,112 @@
         <v>0.8</v>
       </c>
       <c r="J105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="K105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="L105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="M105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="N105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="O105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="P105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="Q105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="R105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="S105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="T105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="U105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="V105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="W105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="X105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="Y105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="Z105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AA105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AB105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AC105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AD105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AE105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AF105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AG105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AH105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AI105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AJ105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AK105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AL105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AM105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AN105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AO105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AP105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AQ105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AR105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
       <c r="AS105">
-        <v>188949.0609</v>
+        <v>1161.553908</v>
       </c>
     </row>
     <row r="106" spans="1:45">
@@ -13705,112 +13705,112 @@
         <v>0.8</v>
       </c>
       <c r="J106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="K106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="L106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="M106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="N106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="O106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="P106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="Q106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="R106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="S106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="T106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="U106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="V106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="W106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="X106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="Y106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="Z106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AA106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AB106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AC106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AD106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AE106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AF106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AG106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AH106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AI106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AJ106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AK106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AL106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AM106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AN106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AO106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AP106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AQ106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AR106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
       <c r="AS106">
-        <v>117278.8996</v>
+        <v>84608.69602</v>
       </c>
     </row>
     <row r="107" spans="1:45">
@@ -13827,112 +13827,112 @@
         <v>0.8</v>
       </c>
       <c r="J107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="K107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="L107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="M107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="N107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="O107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="P107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="Q107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="R107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="S107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="T107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="U107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="V107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="W107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="X107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="Y107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="Z107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AA107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AB107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AC107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AD107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AE107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AF107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AG107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AH107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AI107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AJ107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AK107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AL107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AM107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AN107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AO107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AP107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AQ107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AR107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
       <c r="AS107">
-        <v>47067.50059</v>
+        <v>27054.76164</v>
       </c>
     </row>
     <row r="108" spans="1:45">
@@ -14681,112 +14681,112 @@
         <v>0.8</v>
       </c>
       <c r="J114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="K114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="L114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="M114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="N114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="O114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="P114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="Q114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="R114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="S114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="T114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="U114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="V114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="W114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="X114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="Y114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="Z114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AA114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AB114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AC114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AD114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AE114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AF114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AG114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AH114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AI114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AJ114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AK114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AL114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AM114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AN114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AO114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AP114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AQ114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AR114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
       <c r="AS114">
-        <v>1663.585656</v>
+        <v>20.64299912</v>
       </c>
     </row>
     <row r="115" spans="1:45">
@@ -14803,112 +14803,112 @@
         <v>0.8</v>
       </c>
       <c r="J115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="K115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="L115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="M115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="N115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="O115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="P115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="Q115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="R115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="S115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="T115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="U115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="V115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="W115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="X115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="Y115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="Z115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AA115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AB115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AC115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AD115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AE115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AF115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AG115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AH115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AI115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AJ115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AK115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AL115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AM115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AN115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AO115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AP115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AQ115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AR115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
       <c r="AS115">
-        <v>72959.02519</v>
+        <v>6633973.386</v>
       </c>
     </row>
     <row r="116" spans="1:45">

--- a/ref/ingestion/calibrated/nicaragua/model_input_variables_nicaragua_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/nicaragua/model_input_variables_nicaragua_ip_calibrated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="161">
   <si>
     <t>subsector</t>
   </si>
@@ -495,6 +495,9 @@
   <si>
     <t>vol_ippu_wood_m3_ww_per_tonne_production</t>
   </si>
+  <si>
+    <t>inf</t>
+  </si>
 </sst>
 </file>
 
@@ -1252,112 +1255,112 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>1.004299436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1374,112 +1377,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>0.938486327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1496,112 +1499,112 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.989517373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1618,112 +1621,112 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.930340071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1740,112 +1743,112 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>1.00014603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1862,112 +1865,112 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.033150722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1984,112 +1987,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0.954370804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2228,112 +2231,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>1.055302528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2350,112 +2353,112 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.051714116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2472,112 +2475,112 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.9388550409999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2594,112 +2597,112 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.038753534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3326,112 +3329,112 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>0.972439886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3448,112 +3451,112 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.027712428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -12476,112 +12479,112 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>2539715.418</v>
+        <v>2957017.89188694</v>
       </c>
       <c r="K96">
-        <v>2539715.418</v>
+        <v>3197087.51714342</v>
       </c>
       <c r="L96">
-        <v>2539715.418</v>
+        <v>3195934.89355052</v>
       </c>
       <c r="M96">
-        <v>2539715.418</v>
+        <v>2540308.18177388</v>
       </c>
       <c r="N96">
-        <v>2539715.418</v>
+        <v>2282861.43504041</v>
       </c>
       <c r="O96">
-        <v>2539715.418</v>
+        <v>2539715.41786911</v>
       </c>
       <c r="P96">
-        <v>2539715.418</v>
+        <v>2539715</v>
       </c>
       <c r="Q96">
-        <v>2539715.418</v>
+        <v>2716635.51723646</v>
       </c>
       <c r="R96">
-        <v>2539715.418</v>
+        <v>2905880.59428346</v>
       </c>
       <c r="S96">
-        <v>2539715.418</v>
+        <v>3108308.77924437</v>
       </c>
       <c r="T96">
-        <v>2539715.418</v>
+        <v>3324838.42802565</v>
       </c>
       <c r="U96">
-        <v>2539715.418</v>
+        <v>3556451.87064183</v>
       </c>
       <c r="V96">
-        <v>2539715.418</v>
+        <v>3804199.86775195</v>
       </c>
       <c r="W96">
-        <v>2539715.418</v>
+        <v>4069206.37764521</v>
       </c>
       <c r="X96">
-        <v>2539715.418</v>
+        <v>4352673.6553023</v>
       </c>
       <c r="Y96">
-        <v>2539715.418</v>
+        <v>4655887.70666538</v>
       </c>
       <c r="Z96">
-        <v>2539715.418</v>
+        <v>4980224.12286095</v>
       </c>
       <c r="AA96">
-        <v>2539715.418</v>
+        <v>5327154.32084381</v>
       </c>
       <c r="AB96">
-        <v>2539715.418</v>
+        <v>5698252.21877414</v>
       </c>
       <c r="AC96">
-        <v>2539715.418</v>
+        <v>6095201.37641164</v>
       </c>
       <c r="AD96">
-        <v>2539715.418</v>
+        <v>6519802.63292079</v>
       </c>
       <c r="AE96">
-        <v>2539715.418</v>
+        <v>6973982.2767375</v>
       </c>
       <c r="AF96">
-        <v>2539715.418</v>
+        <v>7459800.78456153</v>
       </c>
       <c r="AG96">
-        <v>2539715.418</v>
+        <v>7979462.16912065</v>
       </c>
       <c r="AH96">
-        <v>2539715.418</v>
+        <v>8535323.97811481</v>
       </c>
       <c r="AI96">
-        <v>2539715.418</v>
+        <v>9129907.98970226</v>
       </c>
       <c r="AJ96">
-        <v>2539715.418</v>
+        <v>9765911.65305008</v>
       </c>
       <c r="AK96">
-        <v>2539715.418</v>
+        <v>10446220.3258512</v>
       </c>
       <c r="AL96">
-        <v>2539715.418</v>
+        <v>11173920.3643263</v>
       </c>
       <c r="AM96">
-        <v>2539715.418</v>
+        <v>11952313.1250949</v>
       </c>
       <c r="AN96">
-        <v>2539715.418</v>
+        <v>12784929.9424402</v>
       </c>
       <c r="AO96">
-        <v>2539715.418</v>
+        <v>13675548.1489115</v>
       </c>
       <c r="AP96">
-        <v>2539715.418</v>
+        <v>14628208.2119491</v>
       </c>
       <c r="AQ96">
-        <v>2539715.418</v>
+        <v>15647232.0642714</v>
       </c>
       <c r="AR96">
-        <v>2539715.418</v>
+        <v>16737242.7111864</v>
       </c>
       <c r="AS96">
-        <v>2539715.418</v>
+        <v>17903185.2037792</v>
       </c>
     </row>
     <row r="97" spans="1:45">
@@ -12598,112 +12601,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>30290.65338</v>
+        <v>27862.1278568579</v>
       </c>
       <c r="K97">
-        <v>30290.65338</v>
+        <v>24788.9903959027</v>
       </c>
       <c r="L97">
-        <v>30290.65338</v>
+        <v>30942.558746724</v>
       </c>
       <c r="M97">
-        <v>30290.65338</v>
+        <v>23404.9614863768</v>
       </c>
       <c r="N97">
-        <v>30290.65338</v>
+        <v>24454.2738572532</v>
       </c>
       <c r="O97">
-        <v>30290.65338</v>
+        <v>30290.6533790425</v>
       </c>
       <c r="P97">
-        <v>30290.65338</v>
+        <v>30290.65</v>
       </c>
       <c r="Q97">
-        <v>30290.65338</v>
+        <v>32428.1027170808</v>
       </c>
       <c r="R97">
-        <v>30290.65338</v>
+        <v>34716.384291177</v>
       </c>
       <c r="S97">
-        <v>30290.65338</v>
+        <v>37166.1379257276</v>
       </c>
       <c r="T97">
-        <v>30290.65338</v>
+        <v>39788.757859362</v>
       </c>
       <c r="U97">
-        <v>30290.65338</v>
+        <v>42596.442362526</v>
       </c>
       <c r="V97">
-        <v>30290.65338</v>
+        <v>45602.2504737998</v>
       </c>
       <c r="W97">
-        <v>30290.65338</v>
+        <v>48820.1627398034</v>
       </c>
       <c r="X97">
-        <v>30290.65338</v>
+        <v>52265.146241198</v>
       </c>
       <c r="Y97">
-        <v>30290.65338</v>
+        <v>55953.2242072328</v>
       </c>
       <c r="Z97">
-        <v>30290.65338</v>
+        <v>59901.5505426261</v>
       </c>
       <c r="AA97">
-        <v>30290.65338</v>
+        <v>64128.4896134182</v>
       </c>
       <c r="AB97">
-        <v>30290.65338</v>
+        <v>68653.7016628951</v>
       </c>
       <c r="AC97">
-        <v>30290.65338</v>
+        <v>73498.23425486679</v>
       </c>
       <c r="AD97">
-        <v>30290.65338</v>
+        <v>78684.62016961959</v>
       </c>
       <c r="AE97">
-        <v>30290.65338</v>
+        <v>84236.98220787301</v>
       </c>
       <c r="AF97">
-        <v>30290.65338</v>
+        <v>90181.145390205</v>
       </c>
       <c r="AG97">
-        <v>30290.65338</v>
+        <v>96544.7570738021</v>
       </c>
       <c r="AH97">
-        <v>30290.65338</v>
+        <v>103357.415545222</v>
       </c>
       <c r="AI97">
-        <v>30290.65338</v>
+        <v>110650.807687271</v>
       </c>
       <c r="AJ97">
-        <v>30290.65338</v>
+        <v>118458.856360322</v>
       </c>
       <c r="AK97">
-        <v>30290.65338</v>
+        <v>126817.878183547</v>
       </c>
       <c r="AL97">
-        <v>30290.65338</v>
+        <v>135766.752449957</v>
       </c>
       <c r="AM97">
-        <v>30290.65338</v>
+        <v>145347.101960892</v>
       </c>
       <c r="AN97">
-        <v>30290.65338</v>
+        <v>155603.486621047</v>
       </c>
       <c r="AO97">
-        <v>30290.65338</v>
+        <v>166583.610694495</v>
       </c>
       <c r="AP97">
-        <v>30290.65338</v>
+        <v>178338.54468568</v>
       </c>
       <c r="AQ97">
-        <v>30290.65338</v>
+        <v>190922.962877387</v>
       </c>
       <c r="AR97">
-        <v>30290.65338</v>
+        <v>204395.397630533</v>
       </c>
       <c r="AS97">
-        <v>30290.65338</v>
+        <v>218818.511628555</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12720,112 +12723,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>65645.83782</v>
+        <v>99441.9885513451</v>
       </c>
       <c r="K98">
-        <v>65645.83782</v>
+        <v>116221.061294563</v>
       </c>
       <c r="L98">
-        <v>65645.83782</v>
+        <v>77581.1000209051</v>
       </c>
       <c r="M98">
-        <v>65645.83782</v>
+        <v>66776.39424959139</v>
       </c>
       <c r="N98">
-        <v>65645.83782</v>
+        <v>61425.0077572945</v>
       </c>
       <c r="O98">
-        <v>65645.83782</v>
+        <v>65645.8378229215</v>
       </c>
       <c r="P98">
-        <v>65645.83782</v>
+        <v>65645.84</v>
       </c>
       <c r="Q98">
-        <v>65645.83782</v>
+        <v>71277.725016863</v>
       </c>
       <c r="R98">
-        <v>65645.83782</v>
+        <v>77392.7804652898</v>
       </c>
       <c r="S98">
-        <v>65645.83782</v>
+        <v>84032.4584816857</v>
       </c>
       <c r="T98">
-        <v>65645.83782</v>
+        <v>91241.7674623183</v>
       </c>
       <c r="U98">
-        <v>65645.83782</v>
+        <v>99069.5771618077</v>
       </c>
       <c r="V98">
-        <v>65645.83782</v>
+        <v>107568.949966612</v>
       </c>
       <c r="W98">
-        <v>65645.83782</v>
+        <v>116797.500589114</v>
       </c>
       <c r="X98">
-        <v>65645.83782</v>
+        <v>126817.786620565</v>
       </c>
       <c r="Y98">
-        <v>65645.83782</v>
+        <v>137697.732590334</v>
       </c>
       <c r="Z98">
-        <v>65645.83782</v>
+        <v>149511.090406024</v>
       </c>
       <c r="AA98">
-        <v>65645.83782</v>
+        <v>162337.939295649</v>
       </c>
       <c r="AB98">
-        <v>65645.83782</v>
+        <v>176265.228640832</v>
       </c>
       <c r="AC98">
-        <v>65645.83782</v>
+        <v>191387.367380717</v>
       </c>
       <c r="AD98">
-        <v>65645.83782</v>
+        <v>207806.863981999</v>
       </c>
       <c r="AE98">
-        <v>65645.83782</v>
+        <v>225635.021313241</v>
       </c>
       <c r="AF98">
-        <v>65645.83782</v>
+        <v>244992.691133805</v>
       </c>
       <c r="AG98">
-        <v>65645.83782</v>
+        <v>266011.093311878</v>
       </c>
       <c r="AH98">
-        <v>65645.83782</v>
+        <v>288832.705324803</v>
       </c>
       <c r="AI98">
-        <v>65645.83782</v>
+        <v>313612.228071389</v>
       </c>
       <c r="AJ98">
-        <v>65645.83782</v>
+        <v>340517.634543152</v>
       </c>
       <c r="AK98">
-        <v>65645.83782</v>
+        <v>369731.308463102</v>
       </c>
       <c r="AL98">
-        <v>65645.83782</v>
+        <v>401451.280610591</v>
       </c>
       <c r="AM98">
-        <v>65645.83782</v>
+        <v>435892.571212878</v>
       </c>
       <c r="AN98">
-        <v>65645.83782</v>
+        <v>473288.6475031</v>
       </c>
       <c r="AO98">
-        <v>65645.83782</v>
+        <v>513893.006324986</v>
       </c>
       <c r="AP98">
-        <v>65645.83782</v>
+        <v>557980.8925123269</v>
       </c>
       <c r="AQ98">
-        <v>65645.83782</v>
+        <v>605851.164691585</v>
       </c>
       <c r="AR98">
-        <v>65645.83782</v>
+        <v>657828.321155354</v>
       </c>
       <c r="AS98">
-        <v>65645.83782</v>
+        <v>714264.699539468</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -12842,112 +12845,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>2570.043182</v>
+        <v>2996.4025639497</v>
       </c>
       <c r="K99">
-        <v>2570.043182</v>
+        <v>3129.75344093452</v>
       </c>
       <c r="L99">
-        <v>2570.043182</v>
+        <v>3445.59211543944</v>
       </c>
       <c r="M99">
-        <v>2570.043182</v>
+        <v>3145.17133732205</v>
       </c>
       <c r="N99">
-        <v>2570.043182</v>
+        <v>2648.66151780243</v>
       </c>
       <c r="O99">
-        <v>2570.043182</v>
+        <v>2570.04318161036</v>
       </c>
       <c r="P99">
-        <v>2570.043182</v>
+        <v>2570.043</v>
       </c>
       <c r="Q99">
-        <v>2570.043182</v>
+        <v>2687.79935431454</v>
       </c>
       <c r="R99">
-        <v>2570.043182</v>
+        <v>2810.95116659669</v>
       </c>
       <c r="S99">
-        <v>2570.043182</v>
+        <v>2939.74565039896</v>
       </c>
       <c r="T99">
-        <v>2570.043182</v>
+        <v>3074.44134630871</v>
       </c>
       <c r="U99">
-        <v>2570.043182</v>
+        <v>3215.30864093966</v>
       </c>
       <c r="V99">
-        <v>2570.043182</v>
+        <v>3362.63030970282</v>
       </c>
       <c r="W99">
-        <v>2570.043182</v>
+        <v>3516.70208444674</v>
       </c>
       <c r="X99">
-        <v>2570.043182</v>
+        <v>3677.83324710619</v>
       </c>
       <c r="Y99">
-        <v>2570.043182</v>
+        <v>3846.34725055128</v>
       </c>
       <c r="Z99">
-        <v>2570.043182</v>
+        <v>4022.58236788304</v>
       </c>
       <c r="AA99">
-        <v>2570.043182</v>
+        <v>4206.89237147903</v>
       </c>
       <c r="AB99">
-        <v>2570.043182</v>
+        <v>4399.64724315201</v>
       </c>
       <c r="AC99">
-        <v>2570.043182</v>
+        <v>4601.23391684719</v>
       </c>
       <c r="AD99">
-        <v>2570.043182</v>
+        <v>4812.05705536913</v>
       </c>
       <c r="AE99">
-        <v>2570.043182</v>
+        <v>5032.53986269719</v>
       </c>
       <c r="AF99">
-        <v>2570.043182</v>
+        <v>5263.12493352044</v>
       </c>
       <c r="AG99">
-        <v>2570.043182</v>
+        <v>5504.27514169724</v>
       </c>
       <c r="AH99">
-        <v>2570.043182</v>
+        <v>5756.47456942293</v>
       </c>
       <c r="AI99">
-        <v>2570.043182</v>
+        <v>6020.22947897098</v>
       </c>
       <c r="AJ99">
-        <v>2570.043182</v>
+        <v>6296.06932895813</v>
       </c>
       <c r="AK99">
-        <v>2570.043182</v>
+        <v>6584.54783717364</v>
       </c>
       <c r="AL99">
-        <v>2570.043182</v>
+        <v>6886.24409210605</v>
       </c>
       <c r="AM99">
-        <v>2570.043182</v>
+        <v>7201.7637153989</v>
       </c>
       <c r="AN99">
-        <v>2570.043182</v>
+        <v>7531.74007756876</v>
       </c>
       <c r="AO99">
-        <v>2570.043182</v>
+        <v>7876.83556942598</v>
       </c>
       <c r="AP99">
-        <v>2570.043182</v>
+        <v>8237.74293175053</v>
       </c>
       <c r="AQ99">
-        <v>2570.043182</v>
+        <v>8615.18664589201</v>
       </c>
       <c r="AR99">
-        <v>2570.043182</v>
+        <v>9009.92438808525</v>
       </c>
       <c r="AS99">
-        <v>2570.043182</v>
+        <v>9422.748550401049</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -12964,112 +12967,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>24371.17437</v>
+        <v>9042.9928157095</v>
       </c>
       <c r="K100">
-        <v>24371.17437</v>
+        <v>1042.29264610104</v>
       </c>
       <c r="L100">
-        <v>24371.17437</v>
+        <v>8736.192775497489</v>
       </c>
       <c r="M100">
-        <v>24371.17437</v>
+        <v>10071.9445751427</v>
       </c>
       <c r="N100">
-        <v>24371.17437</v>
+        <v>6816.85776519906</v>
       </c>
       <c r="O100">
-        <v>24371.17437</v>
+        <v>24371.1743714232</v>
       </c>
       <c r="P100">
-        <v>24371.17437</v>
-      </c>
-      <c r="Q100">
-        <v>24371.17437</v>
-      </c>
-      <c r="R100">
-        <v>24371.17437</v>
-      </c>
-      <c r="S100">
-        <v>24371.17437</v>
-      </c>
-      <c r="T100">
-        <v>24371.17437</v>
-      </c>
-      <c r="U100">
-        <v>24371.17437</v>
-      </c>
-      <c r="V100">
-        <v>24371.17437</v>
-      </c>
-      <c r="W100">
-        <v>24371.17437</v>
-      </c>
-      <c r="X100">
-        <v>24371.17437</v>
-      </c>
-      <c r="Y100">
-        <v>24371.17437</v>
-      </c>
-      <c r="Z100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AA100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AB100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AC100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AD100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AE100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AF100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AG100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AH100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AI100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AJ100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AK100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AL100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AM100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AN100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AO100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AP100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AQ100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AR100">
-        <v>24371.17437</v>
-      </c>
-      <c r="AS100">
-        <v>24371.17437</v>
+        <v>24371.17</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>160</v>
+      </c>
+      <c r="R100" t="s">
+        <v>160</v>
+      </c>
+      <c r="S100" t="s">
+        <v>160</v>
+      </c>
+      <c r="T100" t="s">
+        <v>160</v>
+      </c>
+      <c r="U100" t="s">
+        <v>160</v>
+      </c>
+      <c r="V100" t="s">
+        <v>160</v>
+      </c>
+      <c r="W100" t="s">
+        <v>160</v>
+      </c>
+      <c r="X100" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS100" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13086,112 +13089,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>188949.0609</v>
+        <v>168757.46913669</v>
       </c>
       <c r="K101">
-        <v>188949.0609</v>
+        <v>189820.508197794</v>
       </c>
       <c r="L101">
-        <v>188949.0609</v>
+        <v>185606.982195615</v>
       </c>
       <c r="M101">
-        <v>188949.0609</v>
+        <v>171058.604878699</v>
       </c>
       <c r="N101">
-        <v>188949.0609</v>
+        <v>166840.211783412</v>
       </c>
       <c r="O101">
-        <v>188949.0609</v>
+        <v>188949.060947327</v>
       </c>
       <c r="P101">
-        <v>188949.0609</v>
+        <v>188949.1</v>
       </c>
       <c r="Q101">
-        <v>188949.0609</v>
+        <v>199872.081328056</v>
       </c>
       <c r="R101">
-        <v>188949.0609</v>
+        <v>211426.51060211</v>
       </c>
       <c r="S101">
-        <v>188949.0609</v>
+        <v>223648.891272687</v>
       </c>
       <c r="T101">
-        <v>188949.0609</v>
+        <v>236577.837022691</v>
       </c>
       <c r="U101">
-        <v>188949.0609</v>
+        <v>250254.193758081</v>
       </c>
       <c r="V101">
-        <v>188949.0609</v>
+        <v>264721.168650723</v>
       </c>
       <c r="W101">
-        <v>188949.0609</v>
+        <v>280024.466641098</v>
       </c>
       <c r="X101">
-        <v>188949.0609</v>
+        <v>296212.434832106</v>
       </c>
       <c r="Y101">
-        <v>188949.0609</v>
+        <v>313336.215230156</v>
       </c>
       <c r="Z101">
-        <v>188949.0609</v>
+        <v>331449.906316078</v>
       </c>
       <c r="AA101">
-        <v>188949.0609</v>
+        <v>350610.733956307</v>
       </c>
       <c r="AB101">
-        <v>188949.0609</v>
+        <v>370879.232194303</v>
       </c>
       <c r="AC101">
-        <v>188949.0609</v>
+        <v>392319.434493347</v>
       </c>
       <c r="AD101">
-        <v>188949.0609</v>
+        <v>414999.076034929</v>
       </c>
       <c r="AE101">
-        <v>188949.0609</v>
+        <v>438989.80771182</v>
       </c>
       <c r="AF101">
-        <v>188949.0609</v>
+        <v>464367.422491903</v>
       </c>
       <c r="AG101">
-        <v>188949.0609</v>
+        <v>491212.094867885</v>
       </c>
       <c r="AH101">
-        <v>188949.0609</v>
+        <v>519608.634149402</v>
       </c>
       <c r="AI101">
-        <v>188949.0609</v>
+        <v>549646.752397707</v>
       </c>
       <c r="AJ101">
-        <v>188949.0609</v>
+        <v>581421.347849429</v>
       </c>
       <c r="AK101">
-        <v>188949.0609</v>
+        <v>615032.804724814</v>
       </c>
       <c r="AL101">
-        <v>188949.0609</v>
+        <v>650587.31036761</v>
       </c>
       <c r="AM101">
-        <v>188949.0609</v>
+        <v>688197.19071854</v>
       </c>
       <c r="AN101">
-        <v>188949.0609</v>
+        <v>727981.2651821889</v>
       </c>
       <c r="AO101">
-        <v>188949.0609</v>
+        <v>770065.222008444</v>
       </c>
       <c r="AP101">
-        <v>188949.0609</v>
+        <v>814582.015374403</v>
       </c>
       <c r="AQ101">
-        <v>188949.0609</v>
+        <v>861672.2854212309</v>
       </c>
       <c r="AR101">
-        <v>188949.0609</v>
+        <v>911484.802572992</v>
       </c>
       <c r="AS101">
-        <v>188949.0609</v>
+        <v>964176.937541149</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13208,112 +13211,112 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>108</v>
+        <v>17383.7934995589</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>14935.6222411441</v>
       </c>
       <c r="L102">
-        <v>100</v>
+        <v>39203.4152876161</v>
       </c>
       <c r="M102">
-        <v>100</v>
+        <v>31047.5146410628</v>
       </c>
       <c r="N102">
-        <v>100</v>
+        <v>4920.73668115729</v>
       </c>
       <c r="O102">
-        <v>100</v>
+        <v>2359.88049545489</v>
       </c>
       <c r="P102">
-        <v>100</v>
+        <v>2359.88</v>
       </c>
       <c r="Q102">
-        <v>100</v>
+        <v>5432.43566584759</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>12505.4482700701</v>
       </c>
       <c r="S102">
-        <v>100</v>
+        <v>28787.4990252643</v>
       </c>
       <c r="T102">
-        <v>100</v>
+        <v>66268.7240179154</v>
       </c>
       <c r="U102">
-        <v>100</v>
+        <v>152550.375394145</v>
       </c>
       <c r="V102">
-        <v>100</v>
+        <v>351170.440924789</v>
       </c>
       <c r="W102">
-        <v>100</v>
+        <v>808393.150529368</v>
       </c>
       <c r="X102">
-        <v>100</v>
+        <v>1860918.25981094</v>
       </c>
       <c r="Y102">
-        <v>100</v>
+        <v>4283827.45132124</v>
       </c>
       <c r="Z102">
-        <v>100</v>
+        <v>9861356.099841719</v>
       </c>
       <c r="AA102">
-        <v>100</v>
+        <v>22700807.9183704</v>
       </c>
       <c r="AB102">
-        <v>100</v>
+        <v>52257181.9665875</v>
       </c>
       <c r="AC102">
-        <v>100</v>
+        <v>120295853.650176</v>
       </c>
       <c r="AD102">
-        <v>100</v>
+        <v>276920642.499957</v>
       </c>
       <c r="AE102">
-        <v>100</v>
+        <v>637470369.224788</v>
       </c>
       <c r="AF102">
-        <v>100</v>
+        <v>1467454603.49584</v>
       </c>
       <c r="AG102">
-        <v>100</v>
+        <v>3378075464.02489</v>
       </c>
       <c r="AH102">
-        <v>100</v>
+        <v>7776318131.72426</v>
       </c>
       <c r="AI102">
-        <v>100</v>
+        <v>17901057667.2357</v>
       </c>
       <c r="AJ102">
-        <v>100</v>
+        <v>41208173351.1388</v>
       </c>
       <c r="AK102">
-        <v>100</v>
+        <v>94861073714.4079</v>
       </c>
       <c r="AL102">
-        <v>100</v>
+        <v>218369866326.57</v>
       </c>
       <c r="AM102">
-        <v>100</v>
+        <v>502686683296.96</v>
       </c>
       <c r="AN102">
-        <v>100</v>
+        <v>1157183020784.55</v>
       </c>
       <c r="AO102">
-        <v>100</v>
+        <v>2663831344823.98</v>
       </c>
       <c r="AP102">
-        <v>100</v>
+        <v>6132130619109.68</v>
       </c>
       <c r="AQ102">
-        <v>100</v>
+        <v>14116143652595.7</v>
       </c>
       <c r="AR102">
-        <v>100</v>
+        <v>32495314271314.1</v>
       </c>
       <c r="AS102">
-        <v>100</v>
+        <v>74804101996886.7</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13330,112 +13333,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>117278.8996</v>
+        <v>114561.556166575</v>
       </c>
       <c r="K103">
-        <v>117278.8996</v>
+        <v>115679.940240887</v>
       </c>
       <c r="L103">
-        <v>117278.8996</v>
+        <v>132774.810717697</v>
       </c>
       <c r="M103">
-        <v>117278.8996</v>
+        <v>119436.604949319</v>
       </c>
       <c r="N103">
-        <v>117278.8996</v>
+        <v>158470.459498445</v>
       </c>
       <c r="O103">
-        <v>117278.8996</v>
+        <v>117278.899584277</v>
       </c>
       <c r="P103">
-        <v>117278.8996</v>
+        <v>117278.9</v>
       </c>
       <c r="Q103">
-        <v>117278.8996</v>
+        <v>126167.328269109</v>
       </c>
       <c r="R103">
-        <v>117278.8996</v>
+        <v>135729.399939504</v>
       </c>
       <c r="S103">
-        <v>117278.8996</v>
+        <v>146016.169642933</v>
       </c>
       <c r="T103">
-        <v>117278.8996</v>
+        <v>157082.561380929</v>
       </c>
       <c r="U103">
-        <v>117278.8996</v>
+        <v>168987.661779742</v>
       </c>
       <c r="V103">
-        <v>117278.8996</v>
+        <v>181795.035570711</v>
       </c>
       <c r="W103">
-        <v>117278.8996</v>
+        <v>195573.064980523</v>
       </c>
       <c r="X103">
-        <v>117278.8996</v>
+        <v>210395.314843449</v>
       </c>
       <c r="Y103">
-        <v>117278.8996</v>
+        <v>226340.92538501</v>
       </c>
       <c r="Z103">
-        <v>117278.8996</v>
+        <v>243495.034774238</v>
       </c>
       <c r="AA103">
-        <v>117278.8996</v>
+        <v>261949.233700686</v>
       </c>
       <c r="AB103">
-        <v>117278.8996</v>
+        <v>281802.054403273</v>
       </c>
       <c r="AC103">
-        <v>117278.8996</v>
+        <v>303159.496762052</v>
       </c>
       <c r="AD103">
-        <v>117278.8996</v>
+        <v>326135.594261847</v>
       </c>
       <c r="AE103">
-        <v>117278.8996</v>
+        <v>350853.022849595</v>
       </c>
       <c r="AF103">
-        <v>117278.8996</v>
+        <v>377443.755936269</v>
       </c>
       <c r="AG103">
-        <v>117278.8996</v>
+        <v>406049.769040609</v>
       </c>
       <c r="AH103">
-        <v>117278.8996</v>
+        <v>436823.797836972</v>
       </c>
       <c r="AI103">
-        <v>117278.8996</v>
+        <v>469930.153654717</v>
       </c>
       <c r="AJ103">
-        <v>117278.8996</v>
+        <v>505545.600783325</v>
       </c>
       <c r="AK103">
-        <v>117278.8996</v>
+        <v>543860.300267428</v>
       </c>
       <c r="AL103">
-        <v>117278.8996</v>
+        <v>585078.825230939</v>
       </c>
       <c r="AM103">
-        <v>117278.8996</v>
+        <v>629421.25315139</v>
       </c>
       <c r="AN103">
-        <v>117278.8996</v>
+        <v>677124.340916442</v>
       </c>
       <c r="AO103">
-        <v>117278.8996</v>
+        <v>728442.788936534</v>
       </c>
       <c r="AP103">
-        <v>117278.8996</v>
+        <v>783650.6010631151</v>
       </c>
       <c r="AQ103">
-        <v>117278.8996</v>
+        <v>843042.547573473</v>
       </c>
       <c r="AR103">
-        <v>117278.8996</v>
+        <v>906935.739033435</v>
       </c>
       <c r="AS103">
-        <v>117278.8996</v>
+        <v>975671.319441249</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13452,112 +13455,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>47067.50059</v>
+        <v>42332.9293197324</v>
       </c>
       <c r="K104">
-        <v>47067.50059</v>
+        <v>48734.0649794303</v>
       </c>
       <c r="L104">
-        <v>47067.50059</v>
+        <v>48415.2766177886</v>
       </c>
       <c r="M104">
-        <v>47067.50059</v>
+        <v>46264.4235873111</v>
       </c>
       <c r="N104">
-        <v>47067.50059</v>
+        <v>48800.9285192888</v>
       </c>
       <c r="O104">
-        <v>47067.50059</v>
+        <v>47067.5005858836</v>
       </c>
       <c r="P104">
-        <v>47067.50059</v>
+        <v>47067.5</v>
       </c>
       <c r="Q104">
-        <v>47067.50059</v>
+        <v>50964.1621028712</v>
       </c>
       <c r="R104">
-        <v>47067.50059</v>
+        <v>55183.4242066763</v>
       </c>
       <c r="S104">
-        <v>47067.50059</v>
+        <v>59751.9939801468</v>
       </c>
       <c r="T104">
-        <v>47067.50059</v>
+        <v>64698.7901880064</v>
       </c>
       <c r="U104">
-        <v>47067.50059</v>
+        <v>70055.1257449665</v>
       </c>
       <c r="V104">
-        <v>47067.50059</v>
+        <v>75854.9059245446</v>
       </c>
       <c r="W104">
-        <v>47067.50059</v>
+        <v>82134.8429773525</v>
       </c>
       <c r="X104">
-        <v>47067.50059</v>
+        <v>88934.6885173776</v>
       </c>
       <c r="Y104">
-        <v>47067.50059</v>
+        <v>96297.4851472458</v>
       </c>
       <c r="Z104">
-        <v>47067.50059</v>
+        <v>104269.83891524</v>
       </c>
       <c r="AA104">
-        <v>47067.50059</v>
+        <v>112902.21432871</v>
       </c>
       <c r="AB104">
-        <v>47067.50059</v>
+        <v>122249.253791289</v>
       </c>
       <c r="AC104">
-        <v>47067.50059</v>
+        <v>132370.123485937</v>
       </c>
       <c r="AD104">
-        <v>47067.50059</v>
+        <v>143328.887893225</v>
       </c>
       <c r="AE104">
-        <v>47067.50059</v>
+        <v>155194.915315548</v>
       </c>
       <c r="AF104">
-        <v>47067.50059</v>
+        <v>168043.316974196</v>
       </c>
       <c r="AG104">
-        <v>47067.50059</v>
+        <v>181955.422458748</v>
       </c>
       <c r="AH104">
-        <v>47067.50059</v>
+        <v>197019.294538355</v>
       </c>
       <c r="AI104">
-        <v>47067.50059</v>
+        <v>213330.286593638</v>
       </c>
       <c r="AJ104">
-        <v>47067.50059</v>
+        <v>230991.646197698</v>
       </c>
       <c r="AK104">
-        <v>47067.50059</v>
+        <v>250115.168666884</v>
       </c>
       <c r="AL104">
-        <v>47067.50059</v>
+        <v>270821.904718247</v>
       </c>
       <c r="AM104">
-        <v>47067.50059</v>
+        <v>293242.926713105</v>
       </c>
       <c r="AN104">
-        <v>47067.50059</v>
+        <v>317520.158337007</v>
       </c>
       <c r="AO104">
-        <v>47067.50059</v>
+        <v>343807.272967899</v>
       </c>
       <c r="AP104">
-        <v>47067.50059</v>
+        <v>372270.666419123</v>
       </c>
       <c r="AQ104">
-        <v>47067.50059</v>
+        <v>403090.510214651</v>
       </c>
       <c r="AR104">
-        <v>47067.50059</v>
+        <v>436461.892063708</v>
       </c>
       <c r="AS104">
-        <v>47067.50059</v>
+        <v>472596.050753932</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -14306,112 +14309,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>1663.585656</v>
+        <v>2098.08481246737</v>
       </c>
       <c r="K111">
-        <v>1663.585656</v>
+        <v>2065.6808279352</v>
       </c>
       <c r="L111">
-        <v>1663.585656</v>
+        <v>1895.72422215299</v>
       </c>
       <c r="M111">
-        <v>1663.585656</v>
+        <v>1394.25182650581</v>
       </c>
       <c r="N111">
-        <v>1663.585656</v>
+        <v>1481.98232965245</v>
       </c>
       <c r="O111">
-        <v>1663.585656</v>
+        <v>1663.58565622714</v>
       </c>
       <c r="P111">
-        <v>1663.585656</v>
+        <v>1663.586</v>
       </c>
       <c r="Q111">
-        <v>1663.585656</v>
+        <v>1771.26494299982</v>
       </c>
       <c r="R111">
-        <v>1663.585656</v>
+        <v>1885.91362171848</v>
       </c>
       <c r="S111">
-        <v>1663.585656</v>
+        <v>2007.98316629003</v>
       </c>
       <c r="T111">
-        <v>1663.585656</v>
+        <v>2137.95390715196</v>
       </c>
       <c r="U111">
-        <v>1663.585656</v>
+        <v>2276.33726509345</v>
       </c>
       <c r="V111">
-        <v>1663.585656</v>
+        <v>2423.67776364078</v>
       </c>
       <c r="W111">
-        <v>1663.585656</v>
+        <v>2580.55517169844</v>
       </c>
       <c r="X111">
-        <v>1663.585656</v>
+        <v>2747.58678487696</v>
       </c>
       <c r="Y111">
-        <v>1663.585656</v>
+        <v>2925.42985448432</v>
       </c>
       <c r="Z111">
-        <v>1663.585656</v>
+        <v>3114.78417373862</v>
       </c>
       <c r="AA111">
-        <v>1663.585656</v>
+        <v>3316.39483137864</v>
       </c>
       <c r="AB111">
-        <v>1663.585656</v>
+        <v>3531.05514350733</v>
       </c>
       <c r="AC111">
-        <v>1663.585656</v>
+        <v>3759.60977520473</v>
       </c>
       <c r="AD111">
-        <v>1663.585656</v>
+        <v>4002.95806419359</v>
       </c>
       <c r="AE111">
-        <v>1663.585656</v>
+        <v>4262.05755963595</v>
       </c>
       <c r="AF111">
-        <v>1663.585656</v>
+        <v>4537.92778998532</v>
       </c>
       <c r="AG111">
-        <v>1663.585656</v>
+        <v>4831.65427472078</v>
       </c>
       <c r="AH111">
-        <v>1663.585656</v>
+        <v>5144.39279574854</v>
       </c>
       <c r="AI111">
-        <v>1663.585656</v>
+        <v>5477.37394527859</v>
       </c>
       <c r="AJ111">
-        <v>1663.585656</v>
+        <v>5831.90796807173</v>
       </c>
       <c r="AK111">
-        <v>1663.585656</v>
+        <v>6209.38991711084</v>
       </c>
       <c r="AL111">
-        <v>1663.585656</v>
+        <v>6611.30514298328</v>
       </c>
       <c r="AM111">
-        <v>1663.585656</v>
+        <v>7039.23513857456</v>
       </c>
       <c r="AN111">
-        <v>1663.585656</v>
+        <v>7494.86376207156</v>
       </c>
       <c r="AO111">
-        <v>1663.585656</v>
+        <v>7979.98386276219</v>
       </c>
       <c r="AP111">
-        <v>1663.585656</v>
+        <v>8496.504335703081</v>
       </c>
       <c r="AQ111">
-        <v>1663.585656</v>
+        <v>9046.457633014959</v>
       </c>
       <c r="AR111">
-        <v>1663.585656</v>
+        <v>9632.007761361619</v>
       </c>
       <c r="AS111">
-        <v>1663.585656</v>
+        <v>10255.4587970817</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -14428,112 +14431,112 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>72959.02519</v>
+        <v>62845.2603035521</v>
       </c>
       <c r="K112">
-        <v>72959.02519</v>
+        <v>70787.4299393758</v>
       </c>
       <c r="L112">
-        <v>72959.02519</v>
+        <v>69794.9233365629</v>
       </c>
       <c r="M112">
-        <v>72959.02519</v>
+        <v>74379.4615891143</v>
       </c>
       <c r="N112">
-        <v>72959.02519</v>
+        <v>79234.5722741823</v>
       </c>
       <c r="O112">
-        <v>72959.02519</v>
+        <v>72959.02519258681</v>
       </c>
       <c r="P112">
-        <v>72959.02519</v>
+        <v>72959.03</v>
       </c>
       <c r="Q112">
-        <v>72959.02519</v>
+        <v>77494.8984180986</v>
       </c>
       <c r="R112">
-        <v>72959.02519</v>
+        <v>82312.76211911561</v>
       </c>
       <c r="S112">
-        <v>72959.02519</v>
+        <v>87430.1527711371</v>
       </c>
       <c r="T112">
-        <v>72959.02519</v>
+        <v>92865.6919873813</v>
       </c>
       <c r="U112">
-        <v>72959.02519</v>
+        <v>98639.1590881696</v>
       </c>
       <c r="V112">
-        <v>72959.02519</v>
+        <v>104771.563075666</v>
       </c>
       <c r="W112">
-        <v>72959.02519</v>
+        <v>111285.219083287</v>
       </c>
       <c r="X112">
-        <v>72959.02519</v>
+        <v>118203.829577986</v>
       </c>
       <c r="Y112">
-        <v>72959.02519</v>
+        <v>125552.570610879</v>
       </c>
       <c r="Z112">
-        <v>72959.02519</v>
+        <v>133358.183430087</v>
       </c>
       <c r="AA112">
-        <v>72959.02519</v>
+        <v>141649.07178915</v>
       </c>
       <c r="AB112">
-        <v>72959.02519</v>
+        <v>150455.405305117</v>
       </c>
       <c r="AC112">
-        <v>72959.02519</v>
+        <v>159809.22924241</v>
       </c>
       <c r="AD112">
-        <v>72959.02519</v>
+        <v>169744.581121969</v>
       </c>
       <c r="AE112">
-        <v>72959.02519</v>
+        <v>180297.614579987</v>
       </c>
       <c r="AF112">
-        <v>72959.02519</v>
+        <v>191506.730926954</v>
       </c>
       <c r="AG112">
-        <v>72959.02519</v>
+        <v>203412.718885742</v>
       </c>
       <c r="AH112">
-        <v>72959.02519</v>
+        <v>216058.903017212</v>
       </c>
       <c r="AI112">
-        <v>72959.02519</v>
+        <v>229491.301373451</v>
       </c>
       <c r="AJ112">
-        <v>72959.02519</v>
+        <v>243758.79295233</v>
       </c>
       <c r="AK112">
-        <v>72959.02519</v>
+        <v>258913.295562717</v>
       </c>
       <c r="AL112">
-        <v>72959.02519</v>
+        <v>275009.954747587</v>
       </c>
       <c r="AM112">
-        <v>72959.02519</v>
+        <v>292107.344452498</v>
       </c>
       <c r="AN112">
-        <v>72959.02519</v>
+        <v>310267.680169636</v>
       </c>
       <c r="AO112">
-        <v>72959.02519</v>
+        <v>329557.045333046</v>
       </c>
       <c r="AP112">
-        <v>72959.02519</v>
+        <v>350045.63178887</v>
       </c>
       <c r="AQ112">
-        <v>72959.02519</v>
+        <v>371807.995215638</v>
       </c>
       <c r="AR112">
-        <v>72959.02519</v>
+        <v>394923.32642406</v>
       </c>
       <c r="AS112">
-        <v>72959.02519</v>
+        <v>419475.739523539</v>
       </c>
     </row>
     <row r="113" spans="1:45">
